--- a/HTGC/all_filings.xlsx
+++ b/HTGC/all_filings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanuthuppan/Downloads/**RA Finance**/HTGC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanuthuppan/Downloads/**RA Finance**/sec-scraper/HTGC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9B547-A2B7-4C47-BF4A-6752FA6965CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19947DEA-2C02-EE49-BA96-E0FA5F544481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1020" windowWidth="25600" windowHeight="16780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="85">
   <si>
     <t>Form type</t>
   </si>
@@ -155,6 +155,126 @@
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/1280784/000128078424000014/htgc-20240331.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000156459015003583/htgc-10q_20150331.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000156459015001201/htgc-10k_20141231.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000156459014005194/htgc-10q_20140930.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000156459014003326/htgc-10q_20140630.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312514177276/d714950d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312514072989/d674917d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312513432963/d618108d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312513315122/d571286d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312513196121/d525770d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312513084470/d483390d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312512446655/d423145d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312512331998/d383491d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312512218681/d344512d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312512106898/d310436d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312511295632/d246717d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312511212397/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312511134248/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312511081409/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312510248305/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312510181856/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312510113080/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312510055525/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312509229553/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312509169182/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312509107269/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312509055279/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312508231630/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312508173477/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312508111125/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312508054268/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312507239958/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312507176055/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312507106254/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312507051057/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000095013406021601/f25059e10vq.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000095013406015887/f22199e10vq.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312506110876/d10q.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312506047261/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000089161805000840/f13770e10vq.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312505163636/d10q.htm</t>
   </si>
 </sst>
 </file>
@@ -547,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1192,6 +1312,686 @@
       </c>
       <c r="E37" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42131</v>
+      </c>
+      <c r="D38" s="2">
+        <v>42094</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>42065</v>
+      </c>
+      <c r="D39" s="2">
+        <v>42004</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2">
+        <v>41949</v>
+      </c>
+      <c r="D40" s="2">
+        <v>41912</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
+        <v>41858</v>
+      </c>
+      <c r="D41" s="2">
+        <v>41820</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41760</v>
+      </c>
+      <c r="D42" s="2">
+        <v>41729</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>41697</v>
+      </c>
+      <c r="D43" s="2">
+        <v>41639</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2">
+        <v>41585</v>
+      </c>
+      <c r="D44" s="2">
+        <v>41547</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41487</v>
+      </c>
+      <c r="D45" s="2">
+        <v>41455</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41396</v>
+      </c>
+      <c r="D46" s="2">
+        <v>41364</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2">
+        <v>41333</v>
+      </c>
+      <c r="D47" s="2">
+        <v>41274</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2">
+        <v>41214</v>
+      </c>
+      <c r="D48" s="2">
+        <v>41182</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2">
+        <v>41123</v>
+      </c>
+      <c r="D49" s="2">
+        <v>41090</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41037</v>
+      </c>
+      <c r="D50" s="2">
+        <v>40999</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2">
+        <v>40977</v>
+      </c>
+      <c r="D51" s="2">
+        <v>40908</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2">
+        <v>40851</v>
+      </c>
+      <c r="D52" s="2">
+        <v>40816</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>40760</v>
+      </c>
+      <c r="D53" s="2">
+        <v>40724</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2">
+        <v>40673</v>
+      </c>
+      <c r="D54" s="2">
+        <v>40633</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2">
+        <v>40631</v>
+      </c>
+      <c r="D55" s="2">
+        <v>40543</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2">
+        <v>40486</v>
+      </c>
+      <c r="D56" s="2">
+        <v>40451</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2">
+        <v>40399</v>
+      </c>
+      <c r="D57" s="2">
+        <v>40359</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2">
+        <v>40305</v>
+      </c>
+      <c r="D58" s="2">
+        <v>40268</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2">
+        <v>40249</v>
+      </c>
+      <c r="D59" s="2">
+        <v>40178</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2">
+        <v>40126</v>
+      </c>
+      <c r="D60" s="2">
+        <v>40086</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2">
+        <v>40032</v>
+      </c>
+      <c r="D61" s="2">
+        <v>39994</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2">
+        <v>39944</v>
+      </c>
+      <c r="D62" s="2">
+        <v>39903</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2">
+        <v>39888</v>
+      </c>
+      <c r="D63" s="2">
+        <v>39813</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2">
+        <v>39762</v>
+      </c>
+      <c r="D64" s="2">
+        <v>39721</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2">
+        <v>39671</v>
+      </c>
+      <c r="D65" s="2">
+        <v>39629</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2">
+        <v>39580</v>
+      </c>
+      <c r="D66" s="2">
+        <v>39538</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2">
+        <v>39519</v>
+      </c>
+      <c r="D67" s="2">
+        <v>39447</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2">
+        <v>39394</v>
+      </c>
+      <c r="D68" s="2">
+        <v>39355</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2">
+        <v>39303</v>
+      </c>
+      <c r="D69" s="2">
+        <v>39263</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <v>39210</v>
+      </c>
+      <c r="D70" s="2">
+        <v>39172</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>39150</v>
+      </c>
+      <c r="D71" s="2">
+        <v>39082</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2">
+        <v>39035</v>
+      </c>
+      <c r="D72" s="2">
+        <v>38990</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2">
+        <v>38940</v>
+      </c>
+      <c r="D73" s="2">
+        <v>38898</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="2">
+        <v>38849</v>
+      </c>
+      <c r="D74" s="2">
+        <v>38807</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2">
+        <v>38783</v>
+      </c>
+      <c r="D75" s="2">
+        <v>38717</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="2">
+        <v>38665</v>
+      </c>
+      <c r="D76" s="2">
+        <v>38625</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2">
+        <v>38574</v>
+      </c>
+      <c r="D77" s="2">
+        <v>38533</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1232,6 +2032,41 @@
     <hyperlink ref="E36" r:id="rId34" xr:uid="{EBA5B3D6-FA50-304A-9721-C4BF1CD049A1}"/>
     <hyperlink ref="E37" r:id="rId35" xr:uid="{3FDFC74D-352C-4147-9BFC-661A914B181C}"/>
     <hyperlink ref="E2" r:id="rId36" xr:uid="{7FF3D262-1758-384E-B933-DE3AD6C8A18A}"/>
+    <hyperlink ref="E43" r:id="rId37" xr:uid="{B4AA8638-8194-2F4B-98CC-B00BAEF5E635}"/>
+    <hyperlink ref="E44" r:id="rId38" xr:uid="{3A7B1FE4-C586-2E40-937D-77269D6A104B}"/>
+    <hyperlink ref="E45" r:id="rId39" xr:uid="{52A6FEC1-E15A-964F-9761-3DFB3C1C3688}"/>
+    <hyperlink ref="E46" r:id="rId40" xr:uid="{4C20DD82-3B56-774F-8F76-13B1553E8FB7}"/>
+    <hyperlink ref="E47" r:id="rId41" xr:uid="{268E015F-8B43-874F-9DDA-1807749B3DD1}"/>
+    <hyperlink ref="E48" r:id="rId42" xr:uid="{A11B455E-C2A6-FC40-8EE1-6F9BB2DCDBAC}"/>
+    <hyperlink ref="E49" r:id="rId43" xr:uid="{74978A5A-7654-454D-AA9C-428EC37DEC9F}"/>
+    <hyperlink ref="E50" r:id="rId44" xr:uid="{39471000-D604-9C4B-8C5A-87F414261AC4}"/>
+    <hyperlink ref="E51" r:id="rId45" xr:uid="{1DA2FA76-8757-E748-9B2F-E4CA39EEA432}"/>
+    <hyperlink ref="E52" r:id="rId46" xr:uid="{5A9D2836-4BFE-FB4C-A7FD-3015EE76140C}"/>
+    <hyperlink ref="E53" r:id="rId47" xr:uid="{F7A298A3-DD74-C841-9625-46F3BC3D9E53}"/>
+    <hyperlink ref="E54" r:id="rId48" xr:uid="{746EDBB7-8E26-AB46-8B71-A1F076781ED2}"/>
+    <hyperlink ref="E55" r:id="rId49" xr:uid="{E1082F6C-CC83-AA4C-B053-564D3503CE6B}"/>
+    <hyperlink ref="E56" r:id="rId50" xr:uid="{A8F94758-9617-824C-BC6C-0509DB5508FA}"/>
+    <hyperlink ref="E57" r:id="rId51" xr:uid="{74EDD7BB-CF4B-8949-830A-72F3D05579E3}"/>
+    <hyperlink ref="E58" r:id="rId52" xr:uid="{7587D523-2C29-EC4E-A477-9198C5783EBE}"/>
+    <hyperlink ref="E59" r:id="rId53" xr:uid="{1326C0F3-08FB-6F45-B6ED-489D42BB666A}"/>
+    <hyperlink ref="E60" r:id="rId54" xr:uid="{551F7056-C088-FD49-80F9-6F134D68A6C4}"/>
+    <hyperlink ref="E61" r:id="rId55" xr:uid="{1E9CFE9A-95E0-BB49-AD34-42E1B605EAC6}"/>
+    <hyperlink ref="E62" r:id="rId56" xr:uid="{87918841-E0CD-C042-AB69-025D66274E55}"/>
+    <hyperlink ref="E63" r:id="rId57" xr:uid="{2FACB9FF-81E7-9A4E-9C28-9E7C8CE993BB}"/>
+    <hyperlink ref="E64" r:id="rId58" xr:uid="{F1A65800-6B77-264E-A24F-45272973D0C1}"/>
+    <hyperlink ref="E65" r:id="rId59" xr:uid="{4A91D8A0-3897-C74E-9195-69519CA3F30E}"/>
+    <hyperlink ref="E66" r:id="rId60" xr:uid="{0954E156-BD91-904E-9252-7C039699EFF7}"/>
+    <hyperlink ref="E67" r:id="rId61" xr:uid="{0ED699DC-9A6A-5445-BB5C-6452BD1A75F8}"/>
+    <hyperlink ref="E68" r:id="rId62" xr:uid="{82C1F9BF-4CC1-C542-A955-FF167AA3F946}"/>
+    <hyperlink ref="E69" r:id="rId63" xr:uid="{A4915961-13E2-DE45-9A75-C67831B4F8E3}"/>
+    <hyperlink ref="E70" r:id="rId64" xr:uid="{C56D5821-E405-B844-B085-4B8EB6B9A37B}"/>
+    <hyperlink ref="E71" r:id="rId65" xr:uid="{7EAE1974-A926-FA46-8DBA-E56979BE6289}"/>
+    <hyperlink ref="E72" r:id="rId66" xr:uid="{8F3FCAF1-1054-3E45-962D-18F040F3B065}"/>
+    <hyperlink ref="E73" r:id="rId67" xr:uid="{E061FC33-3390-8D4E-90B6-FD2FFE21428A}"/>
+    <hyperlink ref="E74" r:id="rId68" xr:uid="{B12D73BC-51A2-B944-8DF7-95F5696A29C6}"/>
+    <hyperlink ref="E75" r:id="rId69" xr:uid="{45FFFA35-2CCC-3F43-8ECD-A78D05286EB3}"/>
+    <hyperlink ref="E76" r:id="rId70" xr:uid="{0C54791B-DBAF-874B-A5D6-F6B4C5EF4BB7}"/>
+    <hyperlink ref="E77" r:id="rId71" xr:uid="{0B893913-D321-0046-9537-B7251E9B4CBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HTGC/all_filings.xlsx
+++ b/HTGC/all_filings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanuthuppan/Downloads/**RA Finance**/sec-scraper/HTGC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanuthuppan/Downloads/RA/BDC Cleaning/sec-scraper/HTGC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19947DEA-2C02-EE49-BA96-E0FA5F544481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE16BA5-F1DA-6541-9B71-54E4AD31ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>Form type</t>
   </si>
@@ -172,109 +172,7 @@
     <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312514177276/d714950d10q.htm</t>
   </si>
   <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312514072989/d674917d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312513432963/d618108d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312513315122/d571286d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312513196121/d525770d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312513084470/d483390d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312512446655/d423145d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312512331998/d383491d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312512218681/d344512d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312512106898/d310436d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312511295632/d246717d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312511212397/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312511134248/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312511081409/d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312510248305/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312510181856/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312510113080/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312510055525/d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312509229553/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312509169182/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312509107269/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312509055279/d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312508231630/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312508173477/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312508111125/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312508054268/d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312507239958/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312507176055/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312507106254/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312507051057/d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000095013406021601/f25059e10vq.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000095013406015887/f22199e10vq.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312506110876/d10q.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312506047261/d10k.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000089161805000840/f13770e10vq.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1280784/000119312505163636/d10q.htm</t>
+    <t>https://www.sec.gov/Archives/edgar/data/1280784/000128078424000020/htgc-20240630.htm</t>
   </si>
 </sst>
 </file>
@@ -326,12 +224,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -667,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,49 +607,50 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
+        <v>45505</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45473</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
         <v>45414</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>45382</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45337</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45291</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>45232</v>
+        <v>45337</v>
       </c>
       <c r="D4" s="2">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -761,13 +661,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>45141</v>
+        <v>45232</v>
       </c>
       <c r="D5" s="2">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -778,47 +678,47 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>45050</v>
+        <v>45141</v>
       </c>
       <c r="D6" s="2">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>44973</v>
+        <v>45050</v>
       </c>
       <c r="D7" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>44867</v>
+        <v>44973</v>
       </c>
       <c r="D8" s="2">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -829,13 +729,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>44770</v>
+        <v>44867</v>
       </c>
       <c r="D9" s="2">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -846,47 +746,47 @@
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>44686</v>
+        <v>44770</v>
       </c>
       <c r="D10" s="2">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>44614</v>
+        <v>44686</v>
       </c>
       <c r="D11" s="2">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>44497</v>
+        <v>44614</v>
       </c>
       <c r="D12" s="2">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -897,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>44406</v>
+        <v>44497</v>
       </c>
       <c r="D13" s="2">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -914,47 +814,47 @@
         <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>44315</v>
+        <v>44406</v>
       </c>
       <c r="D14" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>44250</v>
+        <v>44315</v>
       </c>
       <c r="D15" s="2">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>44133</v>
+        <v>44250</v>
       </c>
       <c r="D16" s="2">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -965,13 +865,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2">
-        <v>44042</v>
+        <v>44133</v>
       </c>
       <c r="D17" s="2">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -982,47 +882,47 @@
         <v>8</v>
       </c>
       <c r="C18" s="2">
-        <v>43955</v>
+        <v>44042</v>
       </c>
       <c r="D18" s="2">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>43881</v>
+        <v>43955</v>
       </c>
       <c r="D19" s="2">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>43768</v>
+        <v>43881</v>
       </c>
       <c r="D20" s="2">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1033,13 +933,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>43678</v>
+        <v>43768</v>
       </c>
       <c r="D21" s="2">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,47 +950,47 @@
         <v>8</v>
       </c>
       <c r="C22" s="2">
-        <v>43587</v>
+        <v>43678</v>
       </c>
       <c r="D22" s="2">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>43517</v>
+        <v>43587</v>
       </c>
       <c r="D23" s="2">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>43405</v>
+        <v>43517</v>
       </c>
       <c r="D24" s="2">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,13 +1001,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="2">
-        <v>43314</v>
+        <v>43405</v>
       </c>
       <c r="D25" s="2">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,47 +1018,47 @@
         <v>8</v>
       </c>
       <c r="C26" s="2">
-        <v>43223</v>
+        <v>43314</v>
       </c>
       <c r="D26" s="2">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>43153</v>
+        <v>43223</v>
       </c>
       <c r="D27" s="2">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>43041</v>
+        <v>43153</v>
       </c>
       <c r="D28" s="2">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,13 +1069,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="2">
-        <v>42950</v>
+        <v>43041</v>
       </c>
       <c r="D29" s="2">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1186,47 +1086,47 @@
         <v>8</v>
       </c>
       <c r="C30" s="2">
-        <v>42859</v>
+        <v>42950</v>
       </c>
       <c r="D30" s="2">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2">
-        <v>42789</v>
+        <v>42859</v>
       </c>
       <c r="D31" s="2">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
-        <v>42677</v>
+        <v>42789</v>
       </c>
       <c r="D32" s="2">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,13 +1137,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="2">
-        <v>42586</v>
+        <v>42677</v>
       </c>
       <c r="D33" s="2">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1254,47 +1154,47 @@
         <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>42495</v>
+        <v>42586</v>
       </c>
       <c r="D34" s="2">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2">
-        <v>42425</v>
+        <v>42495</v>
       </c>
       <c r="D35" s="2">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>42313</v>
+        <v>42425</v>
       </c>
       <c r="D36" s="2">
-        <v>42277</v>
+        <v>42369</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="2">
-        <v>42222</v>
+        <v>42313</v>
       </c>
       <c r="D37" s="2">
-        <v>42185</v>
+        <v>42277</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1322,47 +1222,47 @@
         <v>8</v>
       </c>
       <c r="C38" s="2">
-        <v>42131</v>
+        <v>42222</v>
       </c>
       <c r="D38" s="2">
-        <v>42094</v>
-      </c>
-      <c r="E38" t="s">
-        <v>45</v>
+        <v>42185</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2">
-        <v>42065</v>
+        <v>42131</v>
       </c>
       <c r="D39" s="2">
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>41949</v>
+        <v>42065</v>
       </c>
       <c r="D40" s="2">
-        <v>41912</v>
+        <v>42004</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="2">
-        <v>41858</v>
+        <v>41949</v>
       </c>
       <c r="D41" s="2">
-        <v>41820</v>
+        <v>41912</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1390,683 +1290,245 @@
         <v>8</v>
       </c>
       <c r="C42" s="2">
-        <v>41760</v>
+        <v>41858</v>
       </c>
       <c r="D42" s="2">
-        <v>41729</v>
+        <v>41820</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2">
-        <v>41697</v>
+        <v>41760</v>
       </c>
       <c r="D43" s="2">
-        <v>41639</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>50</v>
+        <v>41729</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2">
-        <v>41585</v>
-      </c>
-      <c r="D44" s="2">
-        <v>41547</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="2">
-        <v>41487</v>
-      </c>
-      <c r="D45" s="2">
-        <v>41455</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2">
-        <v>41396</v>
-      </c>
-      <c r="D46" s="2">
-        <v>41364</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2">
-        <v>41333</v>
-      </c>
-      <c r="D47" s="2">
-        <v>41274</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2">
-        <v>41214</v>
-      </c>
-      <c r="D48" s="2">
-        <v>41182</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="2">
-        <v>41123</v>
-      </c>
-      <c r="D49" s="2">
-        <v>41090</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="2">
-        <v>41037</v>
-      </c>
-      <c r="D50" s="2">
-        <v>40999</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2">
-        <v>40977</v>
-      </c>
-      <c r="D51" s="2">
-        <v>40908</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="2">
-        <v>40851</v>
-      </c>
-      <c r="D52" s="2">
-        <v>40816</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="2">
-        <v>40760</v>
-      </c>
-      <c r="D53" s="2">
-        <v>40724</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="2">
-        <v>40673</v>
-      </c>
-      <c r="D54" s="2">
-        <v>40633</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2">
-        <v>40631</v>
-      </c>
-      <c r="D55" s="2">
-        <v>40543</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="2">
-        <v>40486</v>
-      </c>
-      <c r="D56" s="2">
-        <v>40451</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="2">
-        <v>40399</v>
-      </c>
-      <c r="D57" s="2">
-        <v>40359</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="2">
-        <v>40305</v>
-      </c>
-      <c r="D58" s="2">
-        <v>40268</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2">
-        <v>40249</v>
-      </c>
-      <c r="D59" s="2">
-        <v>40178</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="2">
-        <v>40126</v>
-      </c>
-      <c r="D60" s="2">
-        <v>40086</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="2">
-        <v>40032</v>
-      </c>
-      <c r="D61" s="2">
-        <v>39994</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="2">
-        <v>39944</v>
-      </c>
-      <c r="D62" s="2">
-        <v>39903</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="2">
-        <v>39888</v>
-      </c>
-      <c r="D63" s="2">
-        <v>39813</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="2">
-        <v>39762</v>
-      </c>
-      <c r="D64" s="2">
-        <v>39721</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2">
-        <v>39671</v>
-      </c>
-      <c r="D65" s="2">
-        <v>39629</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="2">
-        <v>39580</v>
-      </c>
-      <c r="D66" s="2">
-        <v>39538</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="2">
-        <v>39519</v>
-      </c>
-      <c r="D67" s="2">
-        <v>39447</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="2">
-        <v>39394</v>
-      </c>
-      <c r="D68" s="2">
-        <v>39355</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="2">
-        <v>39303</v>
-      </c>
-      <c r="D69" s="2">
-        <v>39263</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="2">
-        <v>39210</v>
-      </c>
-      <c r="D70" s="2">
-        <v>39172</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="2">
-        <v>39150</v>
-      </c>
-      <c r="D71" s="2">
-        <v>39082</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="2">
-        <v>39035</v>
-      </c>
-      <c r="D72" s="2">
-        <v>38990</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="2">
-        <v>38940</v>
-      </c>
-      <c r="D73" s="2">
-        <v>38898</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="2">
-        <v>38849</v>
-      </c>
-      <c r="D74" s="2">
-        <v>38807</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="2">
-        <v>38783</v>
-      </c>
-      <c r="D75" s="2">
-        <v>38717</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="2">
-        <v>38665</v>
-      </c>
-      <c r="D76" s="2">
-        <v>38625</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="2">
-        <v>38574</v>
-      </c>
-      <c r="D77" s="2">
-        <v>38533</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{B17E6626-945B-E24F-A93A-EDAB19516C71}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{2B154FCA-1249-4F45-B07B-6BE0862F30A6}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{24D91A24-30BF-B64A-A442-720DF49F93D8}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{1DD8A087-B5E7-0E42-B164-704A3ED31A48}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{27C15171-87B3-2948-BA64-192408E03CFC}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{8E3904E5-DEAD-D74D-A3D4-492DF8DF5ADC}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{23D56149-3A0E-E44D-86D0-69E76F75F60D}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{A07D0781-AF42-0E4F-B429-71DD3997A554}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{B42F5DFD-5CE1-2E4E-B47E-498BC98A49E4}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{096221E2-968A-A548-9318-F09BD001785A}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{F11A7D1B-3FBF-5740-B51E-B21B6FBC7559}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{85EFF057-8916-1247-8330-1C3CEFB56F39}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{2DD7F53A-FA51-CD4C-86DD-269A218A7D25}"/>
-    <hyperlink ref="E16" r:id="rId14" xr:uid="{5EB54FF5-E727-9546-B717-A08C2B29362C}"/>
-    <hyperlink ref="E17" r:id="rId15" xr:uid="{59EC0813-4F41-1442-BE95-F7DAC7BC17E3}"/>
-    <hyperlink ref="E18" r:id="rId16" xr:uid="{9D13F588-9D18-9E42-AF01-6C1AA34673B3}"/>
-    <hyperlink ref="E19" r:id="rId17" xr:uid="{6730F4D1-D11F-204D-B86F-D02902C3538A}"/>
-    <hyperlink ref="E20" r:id="rId18" xr:uid="{44DE03AE-2154-8349-8553-6749B87B11D4}"/>
-    <hyperlink ref="E21" r:id="rId19" xr:uid="{1ADAF1AC-400F-C943-ACF4-1B33B1CE1B38}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{A60F123E-967C-CD49-9C8F-216BD240D6DB}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{93138E33-874E-5E48-AF54-1098F4519E08}"/>
-    <hyperlink ref="E24" r:id="rId22" xr:uid="{7FDA5373-524A-184C-BDAF-1016DC57C382}"/>
-    <hyperlink ref="E25" r:id="rId23" xr:uid="{2245661B-6471-664F-B33B-3BFA50E8163F}"/>
-    <hyperlink ref="E26" r:id="rId24" xr:uid="{49E9EBB9-08C3-364F-B0B9-3670B3C313BD}"/>
-    <hyperlink ref="E27" r:id="rId25" xr:uid="{892F0C95-25DC-F744-B472-69FC8704BFEF}"/>
-    <hyperlink ref="E28" r:id="rId26" xr:uid="{6B417242-0249-5D4A-B728-0E06065039BB}"/>
-    <hyperlink ref="E29" r:id="rId27" xr:uid="{C16BA8EC-3651-AF4F-A09B-DDECAEA5174D}"/>
-    <hyperlink ref="E30" r:id="rId28" xr:uid="{73940ECE-91C8-3849-A077-8D1530F51762}"/>
-    <hyperlink ref="E31" r:id="rId29" xr:uid="{1CC74F4E-027A-AC4A-BD63-D2F991F9E624}"/>
-    <hyperlink ref="E32" r:id="rId30" xr:uid="{2415EFED-1B5F-5142-AFAA-0623081A6F94}"/>
-    <hyperlink ref="E33" r:id="rId31" xr:uid="{2DF7456A-830B-E44C-AF24-225C761D8579}"/>
-    <hyperlink ref="E34" r:id="rId32" xr:uid="{DFA66CE9-A7C1-834F-A965-BE3BDF2AC199}"/>
-    <hyperlink ref="E35" r:id="rId33" xr:uid="{819F0815-62E0-5F4B-BF6E-E4B3A0BF6499}"/>
-    <hyperlink ref="E36" r:id="rId34" xr:uid="{EBA5B3D6-FA50-304A-9721-C4BF1CD049A1}"/>
-    <hyperlink ref="E37" r:id="rId35" xr:uid="{3FDFC74D-352C-4147-9BFC-661A914B181C}"/>
-    <hyperlink ref="E2" r:id="rId36" xr:uid="{7FF3D262-1758-384E-B933-DE3AD6C8A18A}"/>
-    <hyperlink ref="E43" r:id="rId37" xr:uid="{B4AA8638-8194-2F4B-98CC-B00BAEF5E635}"/>
-    <hyperlink ref="E44" r:id="rId38" xr:uid="{3A7B1FE4-C586-2E40-937D-77269D6A104B}"/>
-    <hyperlink ref="E45" r:id="rId39" xr:uid="{52A6FEC1-E15A-964F-9761-3DFB3C1C3688}"/>
-    <hyperlink ref="E46" r:id="rId40" xr:uid="{4C20DD82-3B56-774F-8F76-13B1553E8FB7}"/>
-    <hyperlink ref="E47" r:id="rId41" xr:uid="{268E015F-8B43-874F-9DDA-1807749B3DD1}"/>
-    <hyperlink ref="E48" r:id="rId42" xr:uid="{A11B455E-C2A6-FC40-8EE1-6F9BB2DCDBAC}"/>
-    <hyperlink ref="E49" r:id="rId43" xr:uid="{74978A5A-7654-454D-AA9C-428EC37DEC9F}"/>
-    <hyperlink ref="E50" r:id="rId44" xr:uid="{39471000-D604-9C4B-8C5A-87F414261AC4}"/>
-    <hyperlink ref="E51" r:id="rId45" xr:uid="{1DA2FA76-8757-E748-9B2F-E4CA39EEA432}"/>
-    <hyperlink ref="E52" r:id="rId46" xr:uid="{5A9D2836-4BFE-FB4C-A7FD-3015EE76140C}"/>
-    <hyperlink ref="E53" r:id="rId47" xr:uid="{F7A298A3-DD74-C841-9625-46F3BC3D9E53}"/>
-    <hyperlink ref="E54" r:id="rId48" xr:uid="{746EDBB7-8E26-AB46-8B71-A1F076781ED2}"/>
-    <hyperlink ref="E55" r:id="rId49" xr:uid="{E1082F6C-CC83-AA4C-B053-564D3503CE6B}"/>
-    <hyperlink ref="E56" r:id="rId50" xr:uid="{A8F94758-9617-824C-BC6C-0509DB5508FA}"/>
-    <hyperlink ref="E57" r:id="rId51" xr:uid="{74EDD7BB-CF4B-8949-830A-72F3D05579E3}"/>
-    <hyperlink ref="E58" r:id="rId52" xr:uid="{7587D523-2C29-EC4E-A477-9198C5783EBE}"/>
-    <hyperlink ref="E59" r:id="rId53" xr:uid="{1326C0F3-08FB-6F45-B6ED-489D42BB666A}"/>
-    <hyperlink ref="E60" r:id="rId54" xr:uid="{551F7056-C088-FD49-80F9-6F134D68A6C4}"/>
-    <hyperlink ref="E61" r:id="rId55" xr:uid="{1E9CFE9A-95E0-BB49-AD34-42E1B605EAC6}"/>
-    <hyperlink ref="E62" r:id="rId56" xr:uid="{87918841-E0CD-C042-AB69-025D66274E55}"/>
-    <hyperlink ref="E63" r:id="rId57" xr:uid="{2FACB9FF-81E7-9A4E-9C28-9E7C8CE993BB}"/>
-    <hyperlink ref="E64" r:id="rId58" xr:uid="{F1A65800-6B77-264E-A24F-45272973D0C1}"/>
-    <hyperlink ref="E65" r:id="rId59" xr:uid="{4A91D8A0-3897-C74E-9195-69519CA3F30E}"/>
-    <hyperlink ref="E66" r:id="rId60" xr:uid="{0954E156-BD91-904E-9252-7C039699EFF7}"/>
-    <hyperlink ref="E67" r:id="rId61" xr:uid="{0ED699DC-9A6A-5445-BB5C-6452BD1A75F8}"/>
-    <hyperlink ref="E68" r:id="rId62" xr:uid="{82C1F9BF-4CC1-C542-A955-FF167AA3F946}"/>
-    <hyperlink ref="E69" r:id="rId63" xr:uid="{A4915961-13E2-DE45-9A75-C67831B4F8E3}"/>
-    <hyperlink ref="E70" r:id="rId64" xr:uid="{C56D5821-E405-B844-B085-4B8EB6B9A37B}"/>
-    <hyperlink ref="E71" r:id="rId65" xr:uid="{7EAE1974-A926-FA46-8DBA-E56979BE6289}"/>
-    <hyperlink ref="E72" r:id="rId66" xr:uid="{8F3FCAF1-1054-3E45-962D-18F040F3B065}"/>
-    <hyperlink ref="E73" r:id="rId67" xr:uid="{E061FC33-3390-8D4E-90B6-FD2FFE21428A}"/>
-    <hyperlink ref="E74" r:id="rId68" xr:uid="{B12D73BC-51A2-B944-8DF7-95F5696A29C6}"/>
-    <hyperlink ref="E75" r:id="rId69" xr:uid="{45FFFA35-2CCC-3F43-8ECD-A78D05286EB3}"/>
-    <hyperlink ref="E76" r:id="rId70" xr:uid="{0C54791B-DBAF-874B-A5D6-F6B4C5EF4BB7}"/>
-    <hyperlink ref="E77" r:id="rId71" xr:uid="{0B893913-D321-0046-9537-B7251E9B4CBC}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{B17E6626-945B-E24F-A93A-EDAB19516C71}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{2B154FCA-1249-4F45-B07B-6BE0862F30A6}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{24D91A24-30BF-B64A-A442-720DF49F93D8}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{1DD8A087-B5E7-0E42-B164-704A3ED31A48}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{27C15171-87B3-2948-BA64-192408E03CFC}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{8E3904E5-DEAD-D74D-A3D4-492DF8DF5ADC}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{23D56149-3A0E-E44D-86D0-69E76F75F60D}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{A07D0781-AF42-0E4F-B429-71DD3997A554}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{B42F5DFD-5CE1-2E4E-B47E-498BC98A49E4}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{096221E2-968A-A548-9318-F09BD001785A}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{F11A7D1B-3FBF-5740-B51E-B21B6FBC7559}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{85EFF057-8916-1247-8330-1C3CEFB56F39}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{2DD7F53A-FA51-CD4C-86DD-269A218A7D25}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{5EB54FF5-E727-9546-B717-A08C2B29362C}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{59EC0813-4F41-1442-BE95-F7DAC7BC17E3}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{9D13F588-9D18-9E42-AF01-6C1AA34673B3}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{6730F4D1-D11F-204D-B86F-D02902C3538A}"/>
+    <hyperlink ref="E21" r:id="rId18" xr:uid="{44DE03AE-2154-8349-8553-6749B87B11D4}"/>
+    <hyperlink ref="E22" r:id="rId19" xr:uid="{1ADAF1AC-400F-C943-ACF4-1B33B1CE1B38}"/>
+    <hyperlink ref="E23" r:id="rId20" xr:uid="{A60F123E-967C-CD49-9C8F-216BD240D6DB}"/>
+    <hyperlink ref="E24" r:id="rId21" xr:uid="{93138E33-874E-5E48-AF54-1098F4519E08}"/>
+    <hyperlink ref="E25" r:id="rId22" xr:uid="{7FDA5373-524A-184C-BDAF-1016DC57C382}"/>
+    <hyperlink ref="E26" r:id="rId23" xr:uid="{2245661B-6471-664F-B33B-3BFA50E8163F}"/>
+    <hyperlink ref="E27" r:id="rId24" xr:uid="{49E9EBB9-08C3-364F-B0B9-3670B3C313BD}"/>
+    <hyperlink ref="E28" r:id="rId25" xr:uid="{892F0C95-25DC-F744-B472-69FC8704BFEF}"/>
+    <hyperlink ref="E29" r:id="rId26" xr:uid="{6B417242-0249-5D4A-B728-0E06065039BB}"/>
+    <hyperlink ref="E30" r:id="rId27" xr:uid="{C16BA8EC-3651-AF4F-A09B-DDECAEA5174D}"/>
+    <hyperlink ref="E31" r:id="rId28" xr:uid="{73940ECE-91C8-3849-A077-8D1530F51762}"/>
+    <hyperlink ref="E32" r:id="rId29" xr:uid="{1CC74F4E-027A-AC4A-BD63-D2F991F9E624}"/>
+    <hyperlink ref="E33" r:id="rId30" xr:uid="{2415EFED-1B5F-5142-AFAA-0623081A6F94}"/>
+    <hyperlink ref="E34" r:id="rId31" xr:uid="{2DF7456A-830B-E44C-AF24-225C761D8579}"/>
+    <hyperlink ref="E35" r:id="rId32" xr:uid="{DFA66CE9-A7C1-834F-A965-BE3BDF2AC199}"/>
+    <hyperlink ref="E36" r:id="rId33" xr:uid="{819F0815-62E0-5F4B-BF6E-E4B3A0BF6499}"/>
+    <hyperlink ref="E37" r:id="rId34" xr:uid="{EBA5B3D6-FA50-304A-9721-C4BF1CD049A1}"/>
+    <hyperlink ref="E38" r:id="rId35" xr:uid="{3FDFC74D-352C-4147-9BFC-661A914B181C}"/>
+    <hyperlink ref="E3" r:id="rId36" xr:uid="{7FF3D262-1758-384E-B933-DE3AD6C8A18A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
